--- a/data/trans_camb/P16A13-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-1.314874446620695</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.884978559013277</v>
+        <v>4.884978559013279</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8314145860587381</v>
+        <v>-0.8131441238620847</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.256591652528602</v>
+        <v>-2.291474860734056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.11629562755892</v>
+        <v>2.414764662306036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.744688540885775</v>
+        <v>-2.032500133278261</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.769823149025855</v>
+        <v>-3.59031727965361</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.378256088962494</v>
+        <v>2.584308957271089</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.064364471779284</v>
+        <v>-1.129125131241518</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.766598263375864</v>
+        <v>-2.777750537901689</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.087049166170905</v>
+        <v>3.260837132325845</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.045335156320851</v>
+        <v>3.378555182921927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.388045320569295</v>
+        <v>1.411191107820674</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.808001456356149</v>
+        <v>7.954996443349151</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.291154466062636</v>
+        <v>2.287419141584786</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1636828843026959</v>
+        <v>-0.02504657292873823</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.362213201222263</v>
+        <v>7.536422789102841</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.96437225928744</v>
+        <v>2.048883178523936</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07663517521277309</v>
+        <v>0.115588583592783</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.876646037392882</v>
+        <v>6.843682583216874</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1945871762042336</v>
+        <v>-0.1946639030667081</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5152956821603381</v>
+        <v>-0.505116306090594</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4254350164075159</v>
+        <v>0.4984797821624539</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2591907270451967</v>
+        <v>-0.3011878926715985</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5360418441381601</v>
+        <v>-0.5426832492697677</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3249049716082316</v>
+        <v>0.3406557437658108</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1917490917860986</v>
+        <v>-0.2005452843341877</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4938573172544699</v>
+        <v>-0.4880585260964702</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5460486094577894</v>
+        <v>0.555720926603662</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.277273798636829</v>
+        <v>1.594247350365373</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6131648133081478</v>
+        <v>0.7582691270525549</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.209377023322956</v>
+        <v>3.316191368864244</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4727931701569174</v>
+        <v>0.4963873826597986</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06788255708633437</v>
+        <v>-0.01185213951035878</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.583731273928641</v>
+        <v>1.58549585728561</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.481983002361267</v>
+        <v>0.4890688059770484</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01884302019271111</v>
+        <v>0.03464879330194454</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.674507374456266</v>
+        <v>1.669960167066811</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.501824821362656</v>
+        <v>-1.479504891868602</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.674619595517647</v>
+        <v>-1.870288586090834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.155358613388755</v>
+        <v>0.05216123435058297</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.1312274587105136</v>
+        <v>0.004925672346919293</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.030485467722648</v>
+        <v>-1.077117991485608</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.147970197566832</v>
+        <v>3.863304640658677</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2266268383536</v>
+        <v>-0.14933800359102</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.8775671980560975</v>
+        <v>-1.09886545998252</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.634155897344169</v>
+        <v>2.742915141621189</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.726509856748421</v>
+        <v>1.559185039180012</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.21134067531789</v>
+        <v>1.087994440410527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.582954588856864</v>
+        <v>3.199134310711221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.216843249363738</v>
+        <v>3.478661188639196</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.053157721332975</v>
+        <v>2.127785480269897</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.384902480954279</v>
+        <v>7.274858970095026</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.19042860464564</v>
+        <v>2.092720068508712</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.295830790132648</v>
+        <v>1.132076200761632</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.941639260076223</v>
+        <v>4.965616104399165</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1048185318323363</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5409755247049589</v>
+        <v>0.5409755247049591</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5403035581014609</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3935025887861431</v>
+        <v>-0.3979987476897392</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4467513326219</v>
+        <v>-0.4919110139686649</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.004979481400964664</v>
+        <v>-0.01091609332704123</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06747133588873672</v>
+        <v>-0.002265935323134843</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3035359544873761</v>
+        <v>-0.2986279450358568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.072391412771012</v>
+        <v>1.012336276808403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0849557635169966</v>
+        <v>-0.04727010350779387</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2560538917292517</v>
+        <v>-0.3045683454809213</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7080962659166066</v>
+        <v>0.7270382623457946</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7139214812592898</v>
+        <v>0.6734456794639525</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5136069566763463</v>
+        <v>0.4490413122319071</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.471480777490726</v>
+        <v>1.309965959535877</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.402728754404585</v>
+        <v>1.646161737069725</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9271760951628162</v>
+        <v>0.9484040794029587</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.417911687819377</v>
+        <v>3.334884071281157</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.875708525595392</v>
+        <v>0.8391841991331699</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5195117858210836</v>
+        <v>0.4342808105578095</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.971914708335895</v>
+        <v>1.974044548599488</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.147354184619223</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.257007236642519</v>
+        <v>4.25700723664252</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.995678869805374</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3184405586074379</v>
+        <v>0.1008329654905643</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1383453667078869</v>
+        <v>-0.1246069370822458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.463415191871693</v>
+        <v>2.446248618257653</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5796098388931195</v>
+        <v>0.2449125109934142</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3847321870177586</v>
+        <v>0.1813560036268249</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.719407298471493</v>
+        <v>2.606610361948484</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9069794644134034</v>
+        <v>0.7546505375099128</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6017978209121786</v>
+        <v>0.6009658830703125</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.14653563972902</v>
+        <v>3.038572672347742</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.711705077238783</v>
+        <v>3.367661482706601</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.189438729600565</v>
+        <v>3.266709717569177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.875279198666171</v>
+        <v>5.810639060990226</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.248471855821148</v>
+        <v>4.05300060829629</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.125904384223793</v>
+        <v>4.224882301048411</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.995112523102362</v>
+        <v>5.903305904505983</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.333185995471653</v>
+        <v>3.36715101417483</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.158888602592992</v>
+        <v>2.982383913578129</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.456516314304031</v>
+        <v>5.466157080822044</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.7656184481658332</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.517794920695353</v>
+        <v>1.517794920695354</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.8080306147732049</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.09967828280599872</v>
+        <v>-0.03818521067893561</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1033385375961674</v>
+        <v>-0.0870989673770208</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7814108516271986</v>
+        <v>0.7579155562048044</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1356307457345705</v>
+        <v>0.05759810381069209</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08182314348410934</v>
+        <v>0.02699832212629966</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7204253455310093</v>
+        <v>0.6413297167866587</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3141047768815715</v>
+        <v>0.2467401990227933</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1938200558397555</v>
+        <v>0.2038426526985632</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.029839996350379</v>
+        <v>0.9846545586399228</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.318771220911687</v>
+        <v>2.034984780442437</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.949474128396295</v>
+        <v>1.981472328344998</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.834820983172401</v>
+        <v>3.618936471929603</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.926846298133259</v>
+        <v>1.836986343941116</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.923479095837851</v>
+        <v>1.988330378297396</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.927876806782917</v>
+        <v>2.692129982181166</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.628522759226205</v>
+        <v>1.655233573457892</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.540758754752241</v>
+        <v>1.512148928805039</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.689054905434399</v>
+        <v>2.874050593969482</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.991391818311987</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.780847384865312</v>
+        <v>5.780847384865311</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.088499134850755</v>
@@ -1306,7 +1306,7 @@
         <v>0.9571151516488758</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.230810580735173</v>
+        <v>5.230810580735171</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7294346548198234</v>
+        <v>1.003840517466576</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.823062680834161</v>
+        <v>-1.802744744830865</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.940274228858438</v>
+        <v>2.905853898316777</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.851605672970518</v>
+        <v>2.091184335729234</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.590301724065193</v>
+        <v>-0.3154031514100104</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.492122432520814</v>
+        <v>3.658369618505132</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.240018523035731</v>
+        <v>2.110782283701024</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.644460509814578</v>
+        <v>-0.6239581513285998</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.970425334320331</v>
+        <v>3.815115114754062</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.255766722775771</v>
+        <v>6.293159334616822</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.571776672313396</v>
+        <v>1.666843119133931</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.580430898497328</v>
+        <v>6.602545633960561</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.127107267657232</v>
+        <v>7.902151900637927</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.714954363683671</v>
+        <v>4.972817925720112</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.605738978368071</v>
+        <v>7.526595621766091</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.353004547058401</v>
+        <v>6.19732969688375</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.558801873912801</v>
+        <v>2.572167144592267</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.579316032798957</v>
+        <v>6.681732680584723</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.028969452963174</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>2.987014065524569</v>
+        <v>2.987014065524568</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>2.097457244379821</v>
@@ -1411,7 +1411,7 @@
         <v>0.4910134605189068</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>2.68347899428921</v>
+        <v>2.683478994289209</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.09434476852151918</v>
+        <v>0.2787560580189259</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6239213376405914</v>
+        <v>-0.6336528957204116</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8860490007946666</v>
+        <v>0.8555465892381875</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3997087253422688</v>
+        <v>0.4882574849985077</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.304047531926099</v>
+        <v>-0.2514202323426074</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7710813945906706</v>
+        <v>0.9751538456544773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7337090996004426</v>
+        <v>0.7461625960353517</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.252098824080674</v>
+        <v>-0.2657535974418482</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.273742004442432</v>
+        <v>1.223867777060428</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.528367967490481</v>
+        <v>5.639679145711432</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.443990877765692</v>
+        <v>1.498805958344475</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6.615207494631291</v>
+        <v>6.476688215398323</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8.724506275604638</v>
+        <v>9.268629651463179</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.97258204173161</v>
+        <v>5.710169168769076</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9.858248589881814</v>
+        <v>8.803780514616484</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5.200572352086654</v>
+        <v>4.979743091973863</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.02295001639385</v>
+        <v>2.156430068583262</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.534228530323094</v>
+        <v>5.679979188553056</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.2547325654917967</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.588233334502622</v>
+        <v>3.58823333450262</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.777210771096841</v>
@@ -1511,7 +1511,7 @@
         <v>0.4474132871054602</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.749992870246222</v>
+        <v>4.749992870246223</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.629680172286374</v>
@@ -1520,7 +1520,7 @@
         <v>0.3579454008847193</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.194117643763066</v>
+        <v>4.194117643763068</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5665125578417359</v>
+        <v>0.5645663806821138</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5956708180033994</v>
+        <v>-0.5579666704593664</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.693032123396568</v>
+        <v>2.659496562842412</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8139259128205752</v>
+        <v>0.81658570978546</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.491432197878726</v>
+        <v>-0.4845665590808306</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.779327535295572</v>
+        <v>3.812703723832718</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.8755068236456001</v>
+        <v>0.9604828324331455</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.29332921507621</v>
+        <v>-0.3262843688783467</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.573989652069234</v>
+        <v>3.5661896259084</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.518606617014295</v>
+        <v>2.429096524723975</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.160302642133124</v>
+        <v>1.007255465243142</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.588783856552957</v>
+        <v>4.518796832960172</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.870800099573978</v>
+        <v>2.768918126179936</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.39746183206206</v>
+        <v>1.491418992677104</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.591622191600345</v>
+        <v>5.661184703437211</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.338285016312641</v>
+        <v>2.354855338023317</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.991866178946103</v>
+        <v>0.9465554339428146</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.88528099016592</v>
+        <v>4.878995016752063</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.1251782966999302</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.328963698599504</v>
+        <v>1.328963698599505</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.5220659039952202</v>
@@ -1625,7 +1625,7 @@
         <v>0.1146673393170392</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1.343580081778587</v>
+        <v>1.343580081778588</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.177468636049835</v>
+        <v>0.158589222099196</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1883819715179932</v>
+        <v>-0.1820252896921189</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8410529456091785</v>
+        <v>0.8418231683207954</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1971105521036348</v>
+        <v>0.1970174490462866</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1262344896193869</v>
+        <v>-0.1205807374476874</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9233946641578689</v>
+        <v>0.9355910739955048</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2607197165793649</v>
+        <v>0.2774791571651052</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.08814420036692837</v>
+        <v>-0.09673019327632346</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.031004903440551</v>
+        <v>1.022758187018816</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.16778278611806</v>
+        <v>1.067287960958693</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5209824910951788</v>
+        <v>0.4469090247942478</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.040201156093853</v>
+        <v>2.00081883456763</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9146312632277007</v>
+        <v>0.8928017260466387</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4600058834170255</v>
+        <v>0.4808475240021354</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.839253844570194</v>
+        <v>1.857693647866965</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8257507713441403</v>
+        <v>0.852184516510803</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3492394917886954</v>
+        <v>0.3333147524366775</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.760543100535285</v>
+        <v>1.7499246936339</v>
       </c>
     </row>
     <row r="34">
